--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16719" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17076" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:31:39+00:00</t>
+    <t>2023-02-28T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -624,7 +624,7 @@
     <t>KMEHRMS.KMEHRMessage.header.sender.hcparty-individual.address</t>
   </si>
   <si>
-    <t>Home, work, … address(es) of the pateitn or healthcare party.</t>
+    <t>Home, work, ... address(es) of the patient or healthcare party.</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.header.sender.hcparty-individual.address.id</t>
@@ -1430,6 +1430,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.endMoment</t>
   </si>
   <si>
+    <t>the end date (and time) of the suspension</t>
+  </si>
+  <si>
     <t>The end moment</t>
   </si>
   <si>
@@ -1464,6 +1467,9 @@
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.medicinalproduct</t>
+  </si>
+  <si>
+    <t>Description of the medicinal product</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.medicinalproduct.id</t>
@@ -1503,6 +1509,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct</t>
   </si>
   <si>
+    <t>Description of the generic product</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.id</t>
   </si>
   <si>
@@ -1521,21 +1530,35 @@
     <t>Code of prescribed product (INN or CNK)</t>
   </si>
   <si>
+    <t>INN is not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* S-Value= CD-INNCLUSTER is not supported
+* S-Value= CD-VMPGROUP 
+* code from MVP Groups </t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredName</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredCd</t>
+  </si>
+  <si>
+    <t>Code of delivered product (CNK)</t>
+  </si>
+  <si>
     <t>This has to be CNK, not a substance, because it is a delivered product</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredName</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredCd</t>
-  </si>
-  <si>
-    <t>Code of delivered product (CNK)</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription</t>
   </si>
   <si>
+    <t>Description of the compound product</t>
+  </si>
+  <si>
+    <t>Note that in XML this can directly be populated with the description (as it is in Wallonia)</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.id</t>
   </si>
   <si>
@@ -1545,22 +1568,22 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.modifierExtension</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.compoundprescription</t>
-  </si>
-  <si>
-    <t>description of the compound prescription</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.name</t>
-  </si>
-  <si>
-    <t>Name of the compound prescription</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.magistraltext</t>
   </si>
   <si>
     <t>Recipe of the prescription</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.compound</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.formularyReference</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.text</t>
@@ -1582,7 +1605,7 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.lnk</t>
   </si>
   <si>
-    <t>using a link to the transaction of the related medicine</t>
+    <t xml:space="preserve">using a link to the transaction (in the current MedicationSchema) of the related medicine, </t>
   </si>
   <si>
     <t>* TYPE = isplannedfor
@@ -1908,7 +1931,10 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.duration</t>
   </si>
   <si>
-    <t>The duration is mutual exclusive with endMoment</t>
+    <t>The duration of the treatment</t>
+  </si>
+  <si>
+    <t>The duration is mutually exclusive with endMoment</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content</t>
@@ -1983,13 +2009,13 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.modifierExtension</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.compoundprescription</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.name</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.magistraltext</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.compound</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.formularyReference</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.text</t>
@@ -2056,6 +2082,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology</t>
   </si>
   <si>
+    <t>The po</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.id</t>
   </si>
   <si>
@@ -2066,6 +2095,21 @@
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.text</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.low</t>
+  </si>
+  <si>
+    <t>Not used here, only in SumEHR</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.high</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.unit</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.takes</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.regimen</t>
@@ -2250,13 +2294,37 @@
   * ...</t>
   </si>
   <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionForOverDosing</t>
+  </si>
+  <si>
+    <t>NOT USED in MS</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionForReimbursement</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.isSubstitutionAllowed</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.feedback</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.local</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.batch</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.deliveryDate</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionforpatient</t>
   </si>
   <si>
     <t>Usage instructions for the patient.</t>
   </si>
   <si>
-    <t>a diminuer si possible</t>
+    <t>A diminuer si possible</t>
   </si>
   <si>
     <t>CD</t>
@@ -3144,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92">
@@ -3152,7 +3220,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>724</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93">
@@ -3168,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95">
@@ -3236,7 +3304,7 @@
         <v>21</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="104">
@@ -3312,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="114">
@@ -3320,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>729</v>
+        <v>751</v>
       </c>
     </row>
     <row r="115">
@@ -3336,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="117">
@@ -3404,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="126">
@@ -3480,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>732</v>
+        <v>754</v>
       </c>
     </row>
     <row r="136">
@@ -3488,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="137">
@@ -3504,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>732</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139">
@@ -3648,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="158">
@@ -3656,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>735</v>
+        <v>757</v>
       </c>
     </row>
     <row r="159">
@@ -3672,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="161">
@@ -3740,7 +3808,7 @@
         <v>21</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170">
@@ -3816,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="180">
@@ -3824,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="181">
@@ -3840,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="183">
@@ -3908,7 +3976,7 @@
         <v>21</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="192">
@@ -3978,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK502"/>
+  <dimension ref="A1:AK513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3988,8 +4056,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="132.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="132.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="130.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="130.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4019,7 +4087,7 @@
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="132.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="130.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -31836,7 +31904,7 @@
         <v>457</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -31907,10 +31975,10 @@
         <v>112</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32010,10 +32078,10 @@
         <v>112</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32115,10 +32183,10 @@
         <v>112</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -32222,10 +32290,10 @@
         <v>112</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -32303,7 +32371,7 @@
         <v>73</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>79</v>
@@ -32323,10 +32391,10 @@
         <v>112</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -32404,7 +32472,7 @@
         <v>73</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>74</v>
@@ -32424,10 +32492,10 @@
         <v>112</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -32453,10 +32521,10 @@
         <v>121</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -32507,7 +32575,7 @@
         <v>73</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>74</v>
@@ -32527,10 +32595,10 @@
         <v>112</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -32630,10 +32698,10 @@
         <v>112</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -32735,10 +32803,10 @@
         <v>112</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -32842,10 +32910,10 @@
         <v>112</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -32871,10 +32939,10 @@
         <v>121</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -32925,7 +32993,7 @@
         <v>73</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>74</v>
@@ -32945,10 +33013,10 @@
         <v>112</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -33048,10 +33116,10 @@
         <v>112</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -33153,10 +33221,10 @@
         <v>112</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -33260,10 +33328,10 @@
         <v>112</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -33286,13 +33354,13 @@
         <v>73</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -33343,7 +33411,7 @@
         <v>73</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>74</v>
@@ -33363,10 +33431,10 @@
         <v>112</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -33392,10 +33460,10 @@
         <v>137</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
@@ -33446,7 +33514,7 @@
         <v>73</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>74</v>
@@ -33466,10 +33534,10 @@
         <v>112</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -33492,13 +33560,13 @@
         <v>73</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
@@ -33549,7 +33617,7 @@
         <v>73</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>74</v>
@@ -33569,10 +33637,10 @@
         <v>112</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -33598,10 +33666,10 @@
         <v>137</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
@@ -33652,7 +33720,7 @@
         <v>73</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>74</v>
@@ -33672,10 +33740,10 @@
         <v>112</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -33701,10 +33769,10 @@
         <v>121</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
@@ -33755,7 +33823,7 @@
         <v>73</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>74</v>
@@ -33775,10 +33843,10 @@
         <v>112</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -33878,10 +33946,10 @@
         <v>112</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -33983,10 +34051,10 @@
         <v>112</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -34090,10 +34158,10 @@
         <v>112</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -34116,13 +34184,13 @@
         <v>73</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -34173,7 +34241,7 @@
         <v>73</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>74</v>
@@ -34193,10 +34261,10 @@
         <v>112</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -34222,15 +34290,17 @@
         <v>137</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P291" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="P291" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="Q291" t="s" s="2">
         <v>73</v>
       </c>
@@ -34278,7 +34348,7 @@
         <v>73</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>74</v>
@@ -34298,10 +34368,10 @@
         <v>112</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -34324,13 +34394,13 @@
         <v>73</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
@@ -34381,7 +34451,7 @@
         <v>73</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>74</v>
@@ -34401,10 +34471,10 @@
         <v>112</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -34430,13 +34500,13 @@
         <v>137</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O293" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
@@ -34486,7 +34556,7 @@
         <v>73</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>74</v>
@@ -34506,10 +34576,10 @@
         <v>112</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -34535,12 +34605,14 @@
         <v>121</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O294" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="O294" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>73</v>
@@ -34589,7 +34661,7 @@
         <v>73</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>74</v>
@@ -34609,10 +34681,10 @@
         <v>112</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -34712,10 +34784,10 @@
         <v>112</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -34817,10 +34889,10 @@
         <v>112</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -34924,10 +34996,10 @@
         <v>112</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -34935,7 +35007,7 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>79</v>
@@ -34950,13 +35022,13 @@
         <v>73</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="O298" s="2"/>
       <c r="P298" s="2"/>
@@ -35007,10 +35079,10 @@
         <v>73</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>79</v>
@@ -35027,10 +35099,10 @@
         <v>112</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -35038,10 +35110,10 @@
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>73</v>
@@ -35053,13 +35125,13 @@
         <v>73</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>473</v>
+        <v>121</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
@@ -35110,13 +35182,13 @@
         <v>73</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AH299" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>73</v>
@@ -35130,10 +35202,10 @@
         <v>112</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -35141,10 +35213,10 @@
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I300" t="s" s="2">
         <v>73</v>
@@ -35156,13 +35228,13 @@
         <v>73</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
@@ -35213,13 +35285,13 @@
         <v>73</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AH300" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>73</v>
@@ -35233,10 +35305,10 @@
         <v>112</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -35262,10 +35334,10 @@
         <v>80</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
@@ -35316,7 +35388,7 @@
         <v>73</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>74</v>
@@ -35336,10 +35408,10 @@
         <v>112</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -35365,14 +35437,14 @@
         <v>80</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Q302" t="s" s="2">
         <v>73</v>
@@ -35421,7 +35493,7 @@
         <v>73</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>79</v>
@@ -35441,10 +35513,10 @@
         <v>112</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -35470,14 +35542,14 @@
         <v>80</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="O303" s="2"/>
       <c r="P303" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q303" t="s" s="2">
         <v>73</v>
@@ -35526,7 +35598,7 @@
         <v>73</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>79</v>
@@ -35546,10 +35618,10 @@
         <v>112</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -35575,10 +35647,10 @@
         <v>121</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
@@ -35629,7 +35701,7 @@
         <v>73</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>74</v>
@@ -35649,10 +35721,10 @@
         <v>112</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -35752,10 +35824,10 @@
         <v>112</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -35857,10 +35929,10 @@
         <v>112</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -35964,10 +36036,10 @@
         <v>112</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -36047,7 +36119,7 @@
         <v>73</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>74</v>
@@ -36067,10 +36139,10 @@
         <v>112</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -36103,7 +36175,7 @@
       </c>
       <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Q309" t="s" s="2">
         <v>73</v>
@@ -36152,7 +36224,7 @@
         <v>73</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>74</v>
@@ -36172,10 +36244,10 @@
         <v>112</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -36251,7 +36323,7 @@
         <v>73</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>74</v>
@@ -36271,10 +36343,10 @@
         <v>112</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -36374,10 +36446,10 @@
         <v>112</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -36479,10 +36551,10 @@
         <v>112</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -36586,10 +36658,10 @@
         <v>112</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -36615,13 +36687,13 @@
         <v>80</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -36635,7 +36707,7 @@
         <v>73</v>
       </c>
       <c r="U314" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="V314" t="s" s="2">
         <v>73</v>
@@ -36671,7 +36743,7 @@
         <v>73</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>79</v>
@@ -36691,10 +36763,10 @@
         <v>112</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -36720,10 +36792,10 @@
         <v>121</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
@@ -36774,7 +36846,7 @@
         <v>73</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>74</v>
@@ -36794,10 +36866,10 @@
         <v>112</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -36897,10 +36969,10 @@
         <v>112</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -37002,10 +37074,10 @@
         <v>112</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -37109,10 +37181,10 @@
         <v>112</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -37196,7 +37268,7 @@
         <v>73</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>79</v>
@@ -37216,10 +37288,10 @@
         <v>112</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -37301,7 +37373,7 @@
         <v>73</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>74</v>
@@ -37321,10 +37393,10 @@
         <v>112</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -37402,7 +37474,7 @@
         <v>73</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>74</v>
@@ -37422,10 +37494,10 @@
         <v>112</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -37507,7 +37579,7 @@
         <v>73</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>79</v>
@@ -37527,10 +37599,10 @@
         <v>112</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -37612,7 +37684,7 @@
         <v>73</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>79</v>
@@ -37632,10 +37704,10 @@
         <v>112</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -37715,7 +37787,7 @@
         <v>73</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>79</v>
@@ -37735,10 +37807,10 @@
         <v>112</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -37838,10 +37910,10 @@
         <v>112</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -37943,10 +38015,10 @@
         <v>112</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -38050,10 +38122,10 @@
         <v>112</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -38133,7 +38205,7 @@
         <v>73</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>74</v>
@@ -38153,10 +38225,10 @@
         <v>112</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -38256,10 +38328,10 @@
         <v>112</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -38361,10 +38433,10 @@
         <v>112</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -38468,10 +38540,10 @@
         <v>112</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -38553,7 +38625,7 @@
         <v>73</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>79</v>
@@ -38573,10 +38645,10 @@
         <v>112</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -38658,7 +38730,7 @@
         <v>73</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>79</v>
@@ -38678,10 +38750,10 @@
         <v>112</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -38763,7 +38835,7 @@
         <v>73</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>74</v>
@@ -38783,10 +38855,10 @@
         <v>112</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -38866,7 +38938,7 @@
         <v>73</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>74</v>
@@ -38886,10 +38958,10 @@
         <v>112</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -38989,10 +39061,10 @@
         <v>112</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -39094,10 +39166,10 @@
         <v>112</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -39201,10 +39273,10 @@
         <v>112</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -39284,7 +39356,7 @@
         <v>73</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>74</v>
@@ -39304,10 +39376,10 @@
         <v>112</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -39389,7 +39461,7 @@
         <v>73</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>79</v>
@@ -39409,10 +39481,10 @@
         <v>112</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -39492,7 +39564,7 @@
         <v>73</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>74</v>
@@ -39512,10 +39584,10 @@
         <v>112</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -39595,7 +39667,7 @@
         <v>73</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>79</v>
@@ -39615,10 +39687,10 @@
         <v>112</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -39718,10 +39790,10 @@
         <v>112</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -39823,10 +39895,10 @@
         <v>112</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -39930,10 +40002,10 @@
         <v>112</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -40015,7 +40087,7 @@
         <v>73</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>74</v>
@@ -40035,10 +40107,10 @@
         <v>112</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -40120,7 +40192,7 @@
         <v>73</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>74</v>
@@ -40140,10 +40212,10 @@
         <v>112</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -40225,7 +40297,7 @@
         <v>73</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>74</v>
@@ -40245,10 +40317,10 @@
         <v>112</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -40330,7 +40402,7 @@
         <v>73</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>79</v>
@@ -40350,10 +40422,10 @@
         <v>112</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -40435,7 +40507,7 @@
         <v>73</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>74</v>
@@ -40455,10 +40527,10 @@
         <v>112</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -40538,7 +40610,7 @@
         <v>73</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>74</v>
@@ -40558,10 +40630,10 @@
         <v>112</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -40641,7 +40713,7 @@
         <v>73</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>74</v>
@@ -40661,10 +40733,10 @@
         <v>112</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -40744,7 +40816,7 @@
         <v>73</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>74</v>
@@ -40764,10 +40836,10 @@
         <v>112</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -40867,10 +40939,10 @@
         <v>112</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -40972,10 +41044,10 @@
         <v>112</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -41079,10 +41151,10 @@
         <v>112</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -41160,7 +41232,7 @@
         <v>73</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>79</v>
@@ -41180,10 +41252,10 @@
         <v>112</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -41263,7 +41335,7 @@
         <v>73</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>74</v>
@@ -41283,10 +41355,10 @@
         <v>112</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -41366,7 +41438,7 @@
         <v>73</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>74</v>
@@ -41386,10 +41458,10 @@
         <v>112</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -41465,7 +41537,7 @@
         <v>73</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>74</v>
@@ -41485,10 +41557,10 @@
         <v>112</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -41588,10 +41660,10 @@
         <v>112</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -41693,10 +41765,10 @@
         <v>112</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -41800,10 +41872,10 @@
         <v>112</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -41885,7 +41957,7 @@
         <v>73</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>79</v>
@@ -41905,10 +41977,10 @@
         <v>112</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -41990,7 +42062,7 @@
         <v>73</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>79</v>
@@ -42010,10 +42082,10 @@
         <v>112</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -42095,7 +42167,7 @@
         <v>73</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>79</v>
@@ -42115,10 +42187,10 @@
         <v>112</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -42200,7 +42272,7 @@
         <v>73</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>79</v>
@@ -42220,10 +42292,10 @@
         <v>112</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -42249,10 +42321,10 @@
         <v>80</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
@@ -42303,7 +42375,7 @@
         <v>73</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>74</v>
@@ -42323,10 +42395,10 @@
         <v>112</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -42352,10 +42424,10 @@
         <v>121</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="O369" s="2"/>
       <c r="P369" s="2"/>
@@ -42406,7 +42478,7 @@
         <v>73</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>74</v>
@@ -42426,10 +42498,10 @@
         <v>112</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -42529,10 +42601,10 @@
         <v>112</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -42634,10 +42706,10 @@
         <v>112</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -42741,10 +42813,10 @@
         <v>112</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -42824,7 +42896,7 @@
         <v>73</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>74</v>
@@ -42844,10 +42916,10 @@
         <v>112</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -42880,7 +42952,7 @@
       </c>
       <c r="O374" s="2"/>
       <c r="P374" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="Q374" t="s" s="2">
         <v>73</v>
@@ -42929,7 +43001,7 @@
         <v>73</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>74</v>
@@ -42949,10 +43021,10 @@
         <v>112</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -43028,7 +43100,7 @@
         <v>73</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>79</v>
@@ -43048,10 +43120,10 @@
         <v>112</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -43151,10 +43223,10 @@
         <v>112</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -43256,10 +43328,10 @@
         <v>112</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -43363,10 +43435,10 @@
         <v>112</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -43395,7 +43467,7 @@
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
       <c r="P379" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>73</v>
@@ -43444,7 +43516,7 @@
         <v>73</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>74</v>
@@ -43464,10 +43536,10 @@
         <v>112</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -43543,7 +43615,7 @@
         <v>73</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>74</v>
@@ -43563,10 +43635,10 @@
         <v>112</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -43666,10 +43738,10 @@
         <v>112</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -43771,10 +43843,10 @@
         <v>112</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -43878,10 +43950,10 @@
         <v>112</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -43907,13 +43979,13 @@
         <v>80</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P384" s="2"/>
       <c r="Q384" t="s" s="2">
@@ -43927,7 +43999,7 @@
         <v>73</v>
       </c>
       <c r="U384" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="V384" t="s" s="2">
         <v>73</v>
@@ -43963,7 +44035,7 @@
         <v>73</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>79</v>
@@ -43983,10 +44055,10 @@
         <v>112</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -44012,10 +44084,10 @@
         <v>121</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
@@ -44066,7 +44138,7 @@
         <v>73</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>74</v>
@@ -44086,10 +44158,10 @@
         <v>112</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -44189,10 +44261,10 @@
         <v>112</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -44294,10 +44366,10 @@
         <v>112</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -44401,10 +44473,10 @@
         <v>112</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -44484,7 +44556,7 @@
         <v>73</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>74</v>
@@ -44504,10 +44576,10 @@
         <v>112</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -44589,7 +44661,7 @@
         <v>73</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>74</v>
@@ -44609,10 +44681,10 @@
         <v>112</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -44688,7 +44760,7 @@
         <v>73</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>79</v>
@@ -44708,10 +44780,10 @@
         <v>112</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -44811,10 +44883,10 @@
         <v>112</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -44916,10 +44988,10 @@
         <v>112</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -45023,10 +45095,10 @@
         <v>112</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -45104,7 +45176,7 @@
         <v>73</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>79</v>
@@ -45124,10 +45196,10 @@
         <v>112</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -45205,7 +45277,7 @@
         <v>73</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>74</v>
@@ -45225,10 +45297,10 @@
         <v>112</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -45254,10 +45326,10 @@
         <v>121</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
@@ -45308,7 +45380,7 @@
         <v>73</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>74</v>
@@ -45328,10 +45400,10 @@
         <v>112</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -45431,10 +45503,10 @@
         <v>112</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -45536,10 +45608,10 @@
         <v>112</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -45643,10 +45715,10 @@
         <v>112</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -45724,7 +45796,7 @@
         <v>73</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>79</v>
@@ -45744,10 +45816,10 @@
         <v>112</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -45825,7 +45897,7 @@
         <v>73</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -45845,10 +45917,10 @@
         <v>112</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -45874,13 +45946,15 @@
         <v>183</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="O403" s="2"/>
-      <c r="P403" s="2"/>
+      <c r="P403" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="Q403" t="s" s="2">
         <v>73</v>
       </c>
@@ -45928,7 +46002,7 @@
         <v>73</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>74</v>
@@ -45948,10 +46022,10 @@
         <v>112</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -45977,10 +46051,10 @@
         <v>121</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -46031,7 +46105,7 @@
         <v>73</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>74</v>
@@ -46051,10 +46125,10 @@
         <v>112</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -46154,10 +46228,10 @@
         <v>112</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -46259,10 +46333,10 @@
         <v>112</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -46366,10 +46440,10 @@
         <v>112</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -46395,10 +46469,10 @@
         <v>121</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -46449,7 +46523,7 @@
         <v>73</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>74</v>
@@ -46469,10 +46543,10 @@
         <v>112</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -46572,10 +46646,10 @@
         <v>112</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -46677,10 +46751,10 @@
         <v>112</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -46784,10 +46858,10 @@
         <v>112</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -46810,13 +46884,13 @@
         <v>73</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
@@ -46867,7 +46941,7 @@
         <v>73</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>74</v>
@@ -46887,10 +46961,10 @@
         <v>112</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -46916,10 +46990,10 @@
         <v>137</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
@@ -46970,7 +47044,7 @@
         <v>73</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>74</v>
@@ -46990,10 +47064,10 @@
         <v>112</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -47016,13 +47090,13 @@
         <v>73</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -47073,7 +47147,7 @@
         <v>73</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -47093,10 +47167,10 @@
         <v>112</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -47122,10 +47196,10 @@
         <v>137</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
@@ -47176,7 +47250,7 @@
         <v>73</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -47196,10 +47270,10 @@
         <v>112</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -47225,10 +47299,10 @@
         <v>121</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -47279,7 +47353,7 @@
         <v>73</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -47299,10 +47373,10 @@
         <v>112</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -47402,10 +47476,10 @@
         <v>112</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -47507,10 +47581,10 @@
         <v>112</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -47614,10 +47688,10 @@
         <v>112</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -47640,13 +47714,13 @@
         <v>73</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
@@ -47697,7 +47771,7 @@
         <v>73</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>74</v>
@@ -47717,10 +47791,10 @@
         <v>112</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -47746,15 +47820,17 @@
         <v>137</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P421" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="P421" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="Q421" t="s" s="2">
         <v>73</v>
       </c>
@@ -47802,7 +47878,7 @@
         <v>73</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>74</v>
@@ -47822,10 +47898,10 @@
         <v>112</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -47848,13 +47924,13 @@
         <v>73</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -47905,7 +47981,7 @@
         <v>73</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>74</v>
@@ -47925,10 +48001,10 @@
         <v>112</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -47954,13 +48030,13 @@
         <v>137</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O423" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P423" s="2"/>
       <c r="Q423" t="s" s="2">
@@ -48010,7 +48086,7 @@
         <v>73</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>74</v>
@@ -48030,10 +48106,10 @@
         <v>112</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -48059,12 +48135,14 @@
         <v>121</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O424" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="O424" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P424" s="2"/>
       <c r="Q424" t="s" s="2">
         <v>73</v>
@@ -48113,7 +48191,7 @@
         <v>73</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>74</v>
@@ -48133,10 +48211,10 @@
         <v>112</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -48236,10 +48314,10 @@
         <v>112</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -48341,10 +48419,10 @@
         <v>112</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -48448,10 +48526,10 @@
         <v>112</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -48459,7 +48537,7 @@
       </c>
       <c r="F428" s="2"/>
       <c r="G428" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H428" t="s" s="2">
         <v>79</v>
@@ -48474,13 +48552,13 @@
         <v>73</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -48531,10 +48609,10 @@
         <v>73</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AH428" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI428" t="s" s="2">
         <v>79</v>
@@ -48551,10 +48629,10 @@
         <v>112</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -48562,10 +48640,10 @@
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H429" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I429" t="s" s="2">
         <v>73</v>
@@ -48577,13 +48655,13 @@
         <v>73</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>473</v>
+        <v>121</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
@@ -48634,13 +48712,13 @@
         <v>73</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AH429" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI429" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ429" t="s" s="2">
         <v>73</v>
@@ -48654,10 +48732,10 @@
         <v>112</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -48665,10 +48743,10 @@
       </c>
       <c r="F430" s="2"/>
       <c r="G430" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H430" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I430" t="s" s="2">
         <v>73</v>
@@ -48680,13 +48758,13 @@
         <v>73</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="O430" s="2"/>
       <c r="P430" s="2"/>
@@ -48737,13 +48815,13 @@
         <v>73</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="AH430" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI430" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ430" t="s" s="2">
         <v>73</v>
@@ -48757,10 +48835,10 @@
         <v>112</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -48786,10 +48864,10 @@
         <v>80</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
@@ -48840,7 +48918,7 @@
         <v>73</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="AH431" t="s" s="2">
         <v>74</v>
@@ -48860,10 +48938,10 @@
         <v>112</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -48889,14 +48967,14 @@
         <v>121</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="O432" s="2"/>
       <c r="P432" t="s" s="2">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="Q432" t="s" s="2">
         <v>73</v>
@@ -48945,7 +49023,7 @@
         <v>73</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>74</v>
@@ -48965,10 +49043,10 @@
         <v>112</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -49068,10 +49146,10 @@
         <v>112</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -49173,10 +49251,10 @@
         <v>112</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -49280,10 +49358,10 @@
         <v>112</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -49359,7 +49437,7 @@
         <v>73</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>74</v>
@@ -49379,10 +49457,10 @@
         <v>112</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -49408,10 +49486,10 @@
         <v>121</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
@@ -49462,7 +49540,7 @@
         <v>73</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>74</v>
@@ -49482,10 +49560,10 @@
         <v>112</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -49585,10 +49663,10 @@
         <v>112</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -49690,10 +49768,10 @@
         <v>112</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -49797,10 +49875,10 @@
         <v>112</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -49826,10 +49904,10 @@
         <v>121</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
@@ -49880,7 +49958,7 @@
         <v>73</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>74</v>
@@ -49900,10 +49978,10 @@
         <v>112</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -50003,10 +50081,10 @@
         <v>112</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -50108,10 +50186,10 @@
         <v>112</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -50215,10 +50293,10 @@
         <v>112</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -50244,10 +50322,10 @@
         <v>315</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
@@ -50298,7 +50376,7 @@
         <v>73</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>74</v>
@@ -50318,10 +50396,10 @@
         <v>112</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -50347,10 +50425,10 @@
         <v>121</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>464</v>
+        <v>670</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>464</v>
+        <v>670</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
@@ -50401,7 +50479,7 @@
         <v>73</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>74</v>
@@ -50421,10 +50499,10 @@
         <v>112</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -50524,10 +50602,10 @@
         <v>112</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -50629,10 +50707,10 @@
         <v>112</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -50736,10 +50814,10 @@
         <v>112</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -50765,10 +50843,10 @@
         <v>80</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
@@ -50819,7 +50897,7 @@
         <v>73</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>74</v>
@@ -50839,10 +50917,10 @@
         <v>112</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -50853,7 +50931,7 @@
         <v>74</v>
       </c>
       <c r="H451" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I451" t="s" s="2">
         <v>73</v>
@@ -50865,13 +50943,13 @@
         <v>73</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>464</v>
+        <v>676</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>464</v>
+        <v>676</v>
       </c>
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
@@ -50922,19 +51000,19 @@
         <v>73</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI451" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ451" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK451" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="452">
@@ -50942,10 +51020,10 @@
         <v>112</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -50956,7 +51034,7 @@
         <v>74</v>
       </c>
       <c r="H452" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I452" t="s" s="2">
         <v>73</v>
@@ -50968,13 +51046,13 @@
         <v>73</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>81</v>
+        <v>676</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>82</v>
+        <v>676</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
@@ -51025,13 +51103,13 @@
         <v>73</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>78</v>
+        <v>677</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI452" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ452" t="s" s="2">
         <v>73</v>
@@ -51045,21 +51123,21 @@
         <v>112</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H453" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I453" t="s" s="2">
         <v>73</v>
@@ -51071,17 +51149,15 @@
         <v>73</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>86</v>
+        <v>676</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O453" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="O453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" t="s" s="2">
         <v>73</v>
@@ -51118,31 +51194,31 @@
         <v>73</v>
       </c>
       <c r="AC453" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD453" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE453" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF453" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>83</v>
+        <v>678</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI453" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ453" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK453" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="454">
@@ -51150,46 +51226,42 @@
         <v>112</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H454" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I454" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>109</v>
+        <v>676</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O454" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P454" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="O454" s="2"/>
+      <c r="P454" s="2"/>
       <c r="Q454" t="s" s="2">
         <v>73</v>
       </c>
@@ -51237,19 +51309,19 @@
         <v>73</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>106</v>
+        <v>679</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI454" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ454" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK454" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="455">
@@ -51257,10 +51329,10 @@
         <v>112</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -51283,17 +51355,15 @@
         <v>73</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>671</v>
+        <v>465</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O455" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" t="s" s="2">
         <v>73</v>
@@ -51342,7 +51412,7 @@
         <v>73</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -51354,7 +51424,7 @@
         <v>73</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="456">
@@ -51362,10 +51432,10 @@
         <v>112</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -51376,7 +51446,7 @@
         <v>74</v>
       </c>
       <c r="H456" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I456" t="s" s="2">
         <v>73</v>
@@ -51388,13 +51458,13 @@
         <v>73</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>674</v>
+        <v>81</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>674</v>
+        <v>82</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
@@ -51445,19 +51515,19 @@
         <v>73</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>673</v>
+        <v>78</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI456" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ456" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK456" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="457">
@@ -51465,21 +51535,21 @@
         <v>112</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H457" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I457" t="s" s="2">
         <v>73</v>
@@ -51491,15 +51561,17 @@
         <v>73</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O457" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O457" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P457" s="2"/>
       <c r="Q457" t="s" s="2">
         <v>73</v>
@@ -51536,31 +51608,31 @@
         <v>73</v>
       </c>
       <c r="AC457" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD457" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE457" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF457" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI457" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ457" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK457" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="458">
@@ -51568,14 +51640,14 @@
         <v>112</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" t="s" s="2">
@@ -51588,24 +51660,26 @@
         <v>73</v>
       </c>
       <c r="J458" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L458" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P458" s="2"/>
+      <c r="P458" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q458" t="s" s="2">
         <v>73</v>
       </c>
@@ -51653,7 +51727,7 @@
         <v>73</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>74</v>
@@ -51673,10 +51747,10 @@
         <v>112</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -51687,7 +51761,7 @@
         <v>74</v>
       </c>
       <c r="H459" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I459" t="s" s="2">
         <v>73</v>
@@ -51699,15 +51773,17 @@
         <v>73</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O459" s="2"/>
+        <v>685</v>
+      </c>
+      <c r="O459" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="P459" s="2"/>
       <c r="Q459" t="s" s="2">
         <v>73</v>
@@ -51723,10 +51799,10 @@
         <v>73</v>
       </c>
       <c r="V459" t="s" s="2">
-        <v>679</v>
+        <v>73</v>
       </c>
       <c r="W459" t="s" s="2">
-        <v>680</v>
+        <v>73</v>
       </c>
       <c r="X459" t="s" s="2">
         <v>73</v>
@@ -51756,13 +51832,13 @@
         <v>73</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI459" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ459" t="s" s="2">
         <v>73</v>
@@ -51776,10 +51852,10 @@
         <v>112</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -51787,10 +51863,10 @@
       </c>
       <c r="F460" s="2"/>
       <c r="G460" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H460" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I460" t="s" s="2">
         <v>73</v>
@@ -51802,17 +51878,15 @@
         <v>73</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O460" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="O460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" t="s" s="2">
         <v>73</v>
@@ -51825,7 +51899,7 @@
         <v>73</v>
       </c>
       <c r="U460" t="s" s="2">
-        <v>685</v>
+        <v>73</v>
       </c>
       <c r="V460" t="s" s="2">
         <v>73</v>
@@ -51861,19 +51935,19 @@
         <v>73</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AH460" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI460" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ460" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK460" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="461">
@@ -51881,10 +51955,10 @@
         <v>112</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -51895,7 +51969,7 @@
         <v>74</v>
       </c>
       <c r="H461" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I461" t="s" s="2">
         <v>73</v>
@@ -51907,13 +51981,13 @@
         <v>73</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>687</v>
+        <v>299</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>687</v>
+        <v>300</v>
       </c>
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
@@ -51964,13 +52038,13 @@
         <v>73</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>686</v>
+        <v>78</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>73</v>
@@ -51984,14 +52058,14 @@
         <v>112</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" t="s" s="2">
@@ -52010,15 +52084,17 @@
         <v>73</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>689</v>
+        <v>86</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O462" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O462" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P462" s="2"/>
       <c r="Q462" t="s" s="2">
         <v>73</v>
@@ -52067,7 +52143,7 @@
         <v>73</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>688</v>
+        <v>83</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -52079,7 +52155,7 @@
         <v>73</v>
       </c>
       <c r="AK462" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="463">
@@ -52087,10 +52163,10 @@
         <v>112</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -52113,13 +52189,13 @@
         <v>73</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>81</v>
+        <v>692</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
@@ -52137,10 +52213,10 @@
         <v>73</v>
       </c>
       <c r="V463" t="s" s="2">
-        <v>73</v>
+        <v>693</v>
       </c>
       <c r="W463" t="s" s="2">
-        <v>73</v>
+        <v>694</v>
       </c>
       <c r="X463" t="s" s="2">
         <v>73</v>
@@ -52170,7 +52246,7 @@
         <v>73</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>78</v>
+        <v>695</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>74</v>
@@ -52190,21 +52266,21 @@
         <v>112</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H464" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I464" t="s" s="2">
         <v>73</v>
@@ -52216,16 +52292,16 @@
         <v>73</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>86</v>
+        <v>697</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>87</v>
+        <v>697</v>
       </c>
       <c r="O464" t="s" s="2">
-        <v>88</v>
+        <v>698</v>
       </c>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
@@ -52239,7 +52315,7 @@
         <v>73</v>
       </c>
       <c r="U464" t="s" s="2">
-        <v>73</v>
+        <v>699</v>
       </c>
       <c r="V464" t="s" s="2">
         <v>73</v>
@@ -52263,31 +52339,31 @@
         <v>73</v>
       </c>
       <c r="AC464" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD464" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE464" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>83</v>
+        <v>696</v>
       </c>
       <c r="AH464" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI464" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ464" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK464" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465">
@@ -52295,14 +52371,14 @@
         <v>112</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
@@ -52315,26 +52391,22 @@
         <v>73</v>
       </c>
       <c r="J465" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>109</v>
+        <v>701</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O465" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P465" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="O465" s="2"/>
+      <c r="P465" s="2"/>
       <c r="Q465" t="s" s="2">
         <v>73</v>
       </c>
@@ -52382,7 +52454,7 @@
         <v>73</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>74</v>
@@ -52394,7 +52466,7 @@
         <v>73</v>
       </c>
       <c r="AK465" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="466">
@@ -52402,10 +52474,10 @@
         <v>112</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -52413,10 +52485,10 @@
       </c>
       <c r="F466" s="2"/>
       <c r="G466" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H466" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I466" t="s" s="2">
         <v>73</v>
@@ -52428,18 +52500,16 @@
         <v>73</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>334</v>
+        <v>703</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>334</v>
+        <v>703</v>
       </c>
       <c r="O466" s="2"/>
-      <c r="P466" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="P466" s="2"/>
       <c r="Q466" t="s" s="2">
         <v>73</v>
       </c>
@@ -52487,19 +52557,19 @@
         <v>73</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="AH466" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI466" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ466" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK466" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="467">
@@ -52507,10 +52577,10 @@
         <v>112</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -52518,10 +52588,10 @@
       </c>
       <c r="F467" s="2"/>
       <c r="G467" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H467" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I467" t="s" s="2">
         <v>73</v>
@@ -52533,13 +52603,13 @@
         <v>73</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
@@ -52590,19 +52660,19 @@
         <v>73</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>694</v>
+        <v>78</v>
       </c>
       <c r="AH467" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI467" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ467" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK467" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="468">
@@ -52610,21 +52680,21 @@
         <v>112</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F468" s="2"/>
       <c r="G468" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H468" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I468" t="s" s="2">
         <v>73</v>
@@ -52636,15 +52706,17 @@
         <v>73</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O468" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O468" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P468" s="2"/>
       <c r="Q468" t="s" s="2">
         <v>73</v>
@@ -52681,31 +52753,31 @@
         <v>73</v>
       </c>
       <c r="AC468" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD468" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE468" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF468" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI468" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ468" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK468" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="469">
@@ -52713,14 +52785,14 @@
         <v>112</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
@@ -52733,24 +52805,26 @@
         <v>73</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L469" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P469" s="2"/>
+      <c r="P469" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q469" t="s" s="2">
         <v>73</v>
       </c>
@@ -52786,19 +52860,19 @@
         <v>73</v>
       </c>
       <c r="AC469" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD469" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE469" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF469" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>74</v>
@@ -52818,45 +52892,43 @@
         <v>112</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H470" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I470" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J470" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K470" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O470" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="Q470" t="s" s="2">
         <v>73</v>
@@ -52905,19 +52977,19 @@
         <v>73</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>106</v>
+        <v>707</v>
       </c>
       <c r="AH470" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI470" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ470" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK470" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471">
@@ -52925,10 +52997,10 @@
         <v>112</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -52936,7 +53008,7 @@
       </c>
       <c r="F471" s="2"/>
       <c r="G471" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H471" t="s" s="2">
         <v>75</v>
@@ -52951,14 +53023,16 @@
         <v>73</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M471" s="2"/>
-      <c r="N471" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M471" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N471" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O471" s="2"/>
-      <c r="P471" t="s" s="2">
-        <v>699</v>
-      </c>
+      <c r="P471" s="2"/>
       <c r="Q471" t="s" s="2">
         <v>73</v>
       </c>
@@ -53006,10 +53080,10 @@
         <v>73</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="AH471" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI471" t="s" s="2">
         <v>75</v>
@@ -53018,7 +53092,7 @@
         <v>73</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="472">
@@ -53026,10 +53100,10 @@
         <v>112</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -53037,7 +53111,7 @@
       </c>
       <c r="F472" s="2"/>
       <c r="G472" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H472" t="s" s="2">
         <v>79</v>
@@ -53052,13 +53126,13 @@
         <v>73</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
@@ -53109,10 +53183,10 @@
         <v>73</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>700</v>
+        <v>78</v>
       </c>
       <c r="AH472" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI472" t="s" s="2">
         <v>79</v>
@@ -53121,7 +53195,7 @@
         <v>73</v>
       </c>
       <c r="AK472" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473">
@@ -53129,21 +53203,21 @@
         <v>112</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H473" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I473" t="s" s="2">
         <v>73</v>
@@ -53155,15 +53229,17 @@
         <v>73</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O473" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O473" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P473" s="2"/>
       <c r="Q473" t="s" s="2">
         <v>73</v>
@@ -53200,31 +53276,31 @@
         <v>73</v>
       </c>
       <c r="AC473" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD473" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE473" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI473" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ473" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK473" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="474">
@@ -53232,14 +53308,14 @@
         <v>112</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" t="s" s="2">
@@ -53252,24 +53328,26 @@
         <v>73</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K474" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L474" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O474" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P474" s="2"/>
+      <c r="P474" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q474" t="s" s="2">
         <v>73</v>
       </c>
@@ -53305,19 +53383,19 @@
         <v>73</v>
       </c>
       <c r="AC474" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD474" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE474" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF474" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AH474" t="s" s="2">
         <v>74</v>
@@ -53337,14 +53415,14 @@
         <v>112</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" t="s" s="2">
@@ -53357,25 +53435,19 @@
         <v>73</v>
       </c>
       <c r="J475" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K475" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M475" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O475" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M475" s="2"/>
+      <c r="N475" s="2"/>
+      <c r="O475" s="2"/>
       <c r="P475" t="s" s="2">
-        <v>111</v>
+        <v>713</v>
       </c>
       <c r="Q475" t="s" s="2">
         <v>73</v>
@@ -53424,7 +53496,7 @@
         <v>73</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>106</v>
+        <v>712</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>74</v>
@@ -53436,7 +53508,7 @@
         <v>73</v>
       </c>
       <c r="AK475" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="476">
@@ -53444,10 +53516,10 @@
         <v>112</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -53455,10 +53527,10 @@
       </c>
       <c r="F476" s="2"/>
       <c r="G476" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H476" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I476" t="s" s="2">
         <v>73</v>
@@ -53470,13 +53542,13 @@
         <v>73</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>705</v>
+        <v>465</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>705</v>
+        <v>465</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -53527,19 +53599,19 @@
         <v>73</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="AH476" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI476" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ476" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK476" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="477">
@@ -53547,10 +53619,10 @@
         <v>112</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -53561,7 +53633,7 @@
         <v>74</v>
       </c>
       <c r="H477" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I477" t="s" s="2">
         <v>73</v>
@@ -53573,13 +53645,13 @@
         <v>73</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>707</v>
+        <v>81</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>707</v>
+        <v>82</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
@@ -53630,19 +53702,19 @@
         <v>73</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>706</v>
+        <v>78</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI477" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ477" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK477" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="478">
@@ -53650,21 +53722,21 @@
         <v>112</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H478" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I478" t="s" s="2">
         <v>73</v>
@@ -53676,15 +53748,17 @@
         <v>73</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O478" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O478" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P478" s="2"/>
       <c r="Q478" t="s" s="2">
         <v>73</v>
@@ -53721,31 +53795,31 @@
         <v>73</v>
       </c>
       <c r="AC478" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD478" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE478" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF478" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI478" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ478" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK478" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="479">
@@ -53753,14 +53827,14 @@
         <v>112</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" t="s" s="2">
@@ -53773,24 +53847,26 @@
         <v>73</v>
       </c>
       <c r="J479" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L479" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O479" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P479" s="2"/>
+      <c r="P479" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q479" t="s" s="2">
         <v>73</v>
       </c>
@@ -53826,19 +53902,19 @@
         <v>73</v>
       </c>
       <c r="AC479" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD479" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE479" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF479" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>74</v>
@@ -53858,14 +53934,14 @@
         <v>112</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" t="s" s="2">
@@ -53878,26 +53954,22 @@
         <v>73</v>
       </c>
       <c r="J480" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>109</v>
+        <v>719</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O480" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P480" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="O480" s="2"/>
+      <c r="P480" s="2"/>
       <c r="Q480" t="s" s="2">
         <v>73</v>
       </c>
@@ -53945,7 +54017,7 @@
         <v>73</v>
       </c>
       <c r="AG480" t="s" s="2">
-        <v>106</v>
+        <v>718</v>
       </c>
       <c r="AH480" t="s" s="2">
         <v>74</v>
@@ -53957,7 +54029,7 @@
         <v>73</v>
       </c>
       <c r="AK480" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="481">
@@ -53965,10 +54037,10 @@
         <v>112</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -53991,18 +54063,16 @@
         <v>73</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>464</v>
+        <v>721</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>464</v>
+        <v>721</v>
       </c>
       <c r="O481" s="2"/>
-      <c r="P481" t="s" s="2">
-        <v>712</v>
-      </c>
+      <c r="P481" s="2"/>
       <c r="Q481" t="s" s="2">
         <v>73</v>
       </c>
@@ -54050,7 +54120,7 @@
         <v>73</v>
       </c>
       <c r="AG481" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="AH481" t="s" s="2">
         <v>74</v>
@@ -54062,7 +54132,7 @@
         <v>73</v>
       </c>
       <c r="AK481" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="482">
@@ -54070,10 +54140,10 @@
         <v>112</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -54084,7 +54154,7 @@
         <v>74</v>
       </c>
       <c r="H482" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I482" t="s" s="2">
         <v>73</v>
@@ -54096,13 +54166,13 @@
         <v>73</v>
       </c>
       <c r="L482" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>714</v>
+        <v>81</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>714</v>
+        <v>82</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -54153,19 +54223,19 @@
         <v>73</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>713</v>
+        <v>78</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI482" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ482" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK482" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="483">
@@ -54173,21 +54243,21 @@
         <v>112</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F483" s="2"/>
       <c r="G483" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H483" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I483" t="s" s="2">
         <v>73</v>
@@ -54199,15 +54269,17 @@
         <v>73</v>
       </c>
       <c r="L483" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O483" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O483" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P483" s="2"/>
       <c r="Q483" t="s" s="2">
         <v>73</v>
@@ -54244,31 +54316,31 @@
         <v>73</v>
       </c>
       <c r="AC483" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD483" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE483" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF483" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI483" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ483" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK483" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="484">
@@ -54276,14 +54348,14 @@
         <v>112</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" t="s" s="2">
@@ -54296,24 +54368,26 @@
         <v>73</v>
       </c>
       <c r="J484" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K484" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L484" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M484" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="N484" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O484" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P484" s="2"/>
+      <c r="P484" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q484" t="s" s="2">
         <v>73</v>
       </c>
@@ -54349,19 +54423,19 @@
         <v>73</v>
       </c>
       <c r="AC484" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD484" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE484" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF484" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG484" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AH484" t="s" s="2">
         <v>74</v>
@@ -54381,14 +54455,14 @@
         <v>112</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F485" s="2"/>
       <c r="G485" t="s" s="2">
@@ -54401,25 +54475,23 @@
         <v>73</v>
       </c>
       <c r="J485" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K485" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="L485" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M485" t="s" s="2">
-        <v>109</v>
+        <v>465</v>
       </c>
       <c r="N485" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O485" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O485" s="2"/>
       <c r="P485" t="s" s="2">
-        <v>111</v>
+        <v>726</v>
       </c>
       <c r="Q485" t="s" s="2">
         <v>73</v>
@@ -54468,7 +54540,7 @@
         <v>73</v>
       </c>
       <c r="AG485" t="s" s="2">
-        <v>106</v>
+        <v>725</v>
       </c>
       <c r="AH485" t="s" s="2">
         <v>74</v>
@@ -54480,7 +54552,7 @@
         <v>73</v>
       </c>
       <c r="AK485" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="486">
@@ -54488,10 +54560,10 @@
         <v>112</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -54514,18 +54586,16 @@
         <v>73</v>
       </c>
       <c r="L486" t="s" s="2">
-        <v>315</v>
+        <v>121</v>
       </c>
       <c r="M486" t="s" s="2">
-        <v>464</v>
+        <v>728</v>
       </c>
       <c r="N486" t="s" s="2">
-        <v>464</v>
+        <v>728</v>
       </c>
       <c r="O486" s="2"/>
-      <c r="P486" t="s" s="2">
-        <v>719</v>
-      </c>
+      <c r="P486" s="2"/>
       <c r="Q486" t="s" s="2">
         <v>73</v>
       </c>
@@ -54573,7 +54643,7 @@
         <v>73</v>
       </c>
       <c r="AG486" t="s" s="2">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="AH486" t="s" s="2">
         <v>74</v>
@@ -54585,7 +54655,7 @@
         <v>73</v>
       </c>
       <c r="AK486" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="487">
@@ -54593,10 +54663,10 @@
         <v>112</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -54607,7 +54677,7 @@
         <v>74</v>
       </c>
       <c r="H487" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I487" t="s" s="2">
         <v>73</v>
@@ -54622,14 +54692,12 @@
         <v>80</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>721</v>
+        <v>81</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O487" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" t="s" s="2">
         <v>73</v>
@@ -54642,7 +54710,7 @@
         <v>73</v>
       </c>
       <c r="U487" t="s" s="2">
-        <v>722</v>
+        <v>73</v>
       </c>
       <c r="V487" t="s" s="2">
         <v>73</v>
@@ -54678,13 +54746,13 @@
         <v>73</v>
       </c>
       <c r="AG487" t="s" s="2">
-        <v>720</v>
+        <v>78</v>
       </c>
       <c r="AH487" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI487" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ487" t="s" s="2">
         <v>73</v>
@@ -54695,17 +54763,17 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>723</v>
+        <v>112</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>30</v>
+        <v>730</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>30</v>
+        <v>730</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" t="s" s="2">
@@ -54724,15 +54792,17 @@
         <v>73</v>
       </c>
       <c r="L488" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>726</v>
+        <v>86</v>
       </c>
       <c r="N488" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="O488" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O488" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P488" s="2"/>
       <c r="Q488" t="s" s="2">
         <v>73</v>
@@ -54769,19 +54839,19 @@
         <v>73</v>
       </c>
       <c r="AC488" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD488" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE488" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF488" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG488" t="s" s="2">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AH488" t="s" s="2">
         <v>74</v>
@@ -54790,53 +54860,57 @@
         <v>75</v>
       </c>
       <c r="AJ488" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK488" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>723</v>
+        <v>112</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>78</v>
+        <v>731</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>78</v>
+        <v>731</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F489" s="2"/>
       <c r="G489" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H489" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I489" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J489" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K489" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L489" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O489" s="2"/>
-      <c r="P489" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O489" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P489" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="Q489" t="s" s="2">
         <v>73</v>
       </c>
@@ -54884,34 +54958,34 @@
         <v>73</v>
       </c>
       <c r="AG489" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AH489" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI489" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ489" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK489" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>723</v>
+        <v>112</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>83</v>
+        <v>732</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>83</v>
+        <v>732</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F490" s="2"/>
       <c r="G490" t="s" s="2">
@@ -54930,18 +55004,18 @@
         <v>73</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>86</v>
+        <v>465</v>
       </c>
       <c r="N490" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O490" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P490" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="O490" s="2"/>
+      <c r="P490" t="s" s="2">
+        <v>733</v>
+      </c>
       <c r="Q490" t="s" s="2">
         <v>73</v>
       </c>
@@ -54977,19 +55051,19 @@
         <v>73</v>
       </c>
       <c r="AC490" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD490" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE490" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF490" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG490" t="s" s="2">
-        <v>83</v>
+        <v>732</v>
       </c>
       <c r="AH490" t="s" s="2">
         <v>74</v>
@@ -55001,18 +55075,18 @@
         <v>73</v>
       </c>
       <c r="AK490" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>728</v>
+        <v>112</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>30</v>
+        <v>734</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>30</v>
+        <v>734</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -55023,7 +55097,7 @@
         <v>74</v>
       </c>
       <c r="H491" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I491" t="s" s="2">
         <v>73</v>
@@ -55035,13 +55109,13 @@
         <v>73</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="M491" t="s" s="2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N491" t="s" s="2">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
@@ -55092,16 +55166,16 @@
         <v>73</v>
       </c>
       <c r="AG491" t="s" s="2">
-        <v>30</v>
+        <v>734</v>
       </c>
       <c r="AH491" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI491" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ491" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK491" t="s" s="2">
         <v>73</v>
@@ -55109,13 +55183,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>728</v>
+        <v>112</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -55126,7 +55200,7 @@
         <v>74</v>
       </c>
       <c r="H492" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I492" t="s" s="2">
         <v>73</v>
@@ -55138,13 +55212,13 @@
         <v>73</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>81</v>
+        <v>735</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>82</v>
+        <v>735</v>
       </c>
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
@@ -55195,13 +55269,13 @@
         <v>73</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI492" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ492" t="s" s="2">
         <v>73</v>
@@ -55212,24 +55286,24 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>728</v>
+        <v>112</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>83</v>
+        <v>737</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>83</v>
+        <v>737</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H493" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I493" t="s" s="2">
         <v>73</v>
@@ -55241,17 +55315,15 @@
         <v>73</v>
       </c>
       <c r="L493" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="M493" t="s" s="2">
-        <v>86</v>
+        <v>735</v>
       </c>
       <c r="N493" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O493" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="O493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" t="s" s="2">
         <v>73</v>
@@ -55288,42 +55360,42 @@
         <v>73</v>
       </c>
       <c r="AC493" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD493" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE493" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF493" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>83</v>
+        <v>737</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI493" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ493" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK493" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>732</v>
+        <v>112</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>30</v>
+        <v>738</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>30</v>
+        <v>738</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -55334,7 +55406,7 @@
         <v>74</v>
       </c>
       <c r="H494" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I494" t="s" s="2">
         <v>73</v>
@@ -55346,13 +55418,13 @@
         <v>73</v>
       </c>
       <c r="L494" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>13</v>
+        <v>735</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>13</v>
+        <v>735</v>
       </c>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
@@ -55403,16 +55475,16 @@
         <v>73</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>30</v>
+        <v>738</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI494" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ494" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK494" t="s" s="2">
         <v>73</v>
@@ -55420,13 +55492,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>732</v>
+        <v>112</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>78</v>
+        <v>739</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>78</v>
+        <v>739</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -55437,7 +55509,7 @@
         <v>74</v>
       </c>
       <c r="H495" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I495" t="s" s="2">
         <v>73</v>
@@ -55449,13 +55521,13 @@
         <v>73</v>
       </c>
       <c r="L495" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="M495" t="s" s="2">
-        <v>81</v>
+        <v>735</v>
       </c>
       <c r="N495" t="s" s="2">
-        <v>82</v>
+        <v>735</v>
       </c>
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
@@ -55506,13 +55578,13 @@
         <v>73</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>78</v>
+        <v>739</v>
       </c>
       <c r="AH495" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI495" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ495" t="s" s="2">
         <v>73</v>
@@ -55523,24 +55595,24 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>732</v>
+        <v>112</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H496" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I496" t="s" s="2">
         <v>73</v>
@@ -55552,17 +55624,15 @@
         <v>73</v>
       </c>
       <c r="L496" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>86</v>
+        <v>735</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O496" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="O496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" t="s" s="2">
         <v>73</v>
@@ -55599,42 +55669,42 @@
         <v>73</v>
       </c>
       <c r="AC496" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD496" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE496" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF496" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI496" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ496" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK496" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>734</v>
+        <v>112</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>30</v>
+        <v>741</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>30</v>
+        <v>741</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -55645,7 +55715,7 @@
         <v>74</v>
       </c>
       <c r="H497" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I497" t="s" s="2">
         <v>73</v>
@@ -55657,13 +55727,13 @@
         <v>73</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
@@ -55714,16 +55784,16 @@
         <v>73</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>30</v>
+        <v>741</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI497" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ497" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK497" t="s" s="2">
         <v>73</v>
@@ -55731,13 +55801,13 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>734</v>
+        <v>112</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>78</v>
+        <v>742</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>78</v>
+        <v>742</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -55763,12 +55833,14 @@
         <v>80</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>81</v>
+        <v>743</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O498" s="2"/>
+        <v>743</v>
+      </c>
+      <c r="O498" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P498" s="2"/>
       <c r="Q498" t="s" s="2">
         <v>73</v>
@@ -55781,7 +55853,7 @@
         <v>73</v>
       </c>
       <c r="U498" t="s" s="2">
-        <v>73</v>
+        <v>744</v>
       </c>
       <c r="V498" t="s" s="2">
         <v>73</v>
@@ -55817,7 +55889,7 @@
         <v>73</v>
       </c>
       <c r="AG498" t="s" s="2">
-        <v>78</v>
+        <v>742</v>
       </c>
       <c r="AH498" t="s" s="2">
         <v>74</v>
@@ -55834,17 +55906,17 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" t="s" s="2">
@@ -55863,17 +55935,15 @@
         <v>73</v>
       </c>
       <c r="L499" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>86</v>
+        <v>748</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O499" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" t="s" s="2">
         <v>73</v>
@@ -55910,19 +55980,19 @@
         <v>73</v>
       </c>
       <c r="AC499" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD499" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE499" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF499" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>74</v>
@@ -55931,21 +56001,21 @@
         <v>75</v>
       </c>
       <c r="AJ499" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AK499" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -55956,7 +56026,7 @@
         <v>74</v>
       </c>
       <c r="H500" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I500" t="s" s="2">
         <v>73</v>
@@ -55968,13 +56038,13 @@
         <v>73</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>741</v>
+        <v>82</v>
       </c>
       <c r="O500" s="2"/>
       <c r="P500" s="2"/>
@@ -56025,16 +56095,16 @@
         <v>73</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI500" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ500" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK500" t="s" s="2">
         <v>73</v>
@@ -56042,24 +56112,24 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F501" s="2"/>
       <c r="G501" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H501" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I501" t="s" s="2">
         <v>73</v>
@@ -56071,15 +56141,17 @@
         <v>73</v>
       </c>
       <c r="L501" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O501" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="O501" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="P501" s="2"/>
       <c r="Q501" t="s" s="2">
         <v>73</v>
@@ -56116,46 +56188,46 @@
         <v>73</v>
       </c>
       <c r="AC501" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD501" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AE501" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF501" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI501" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ501" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK501" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F502" s="2"/>
       <c r="G502" t="s" s="2">
@@ -56174,17 +56246,15 @@
         <v>73</v>
       </c>
       <c r="L502" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>86</v>
+        <v>753</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O502" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="O502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" t="s" s="2">
         <v>73</v>
@@ -56221,19 +56291,19 @@
         <v>73</v>
       </c>
       <c r="AC502" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD502" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AE502" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF502" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="AH502" t="s" s="2">
         <v>74</v>
@@ -56242,9 +56312,1150 @@
         <v>75</v>
       </c>
       <c r="AJ502" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AK502" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D503" s="2"/>
+      <c r="E503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F503" s="2"/>
+      <c r="G503" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M503" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N503" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O503" s="2"/>
+      <c r="P503" s="2"/>
+      <c r="Q503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R503" s="2"/>
+      <c r="S503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B504" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C504" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D504" s="2"/>
+      <c r="E504" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F504" s="2"/>
+      <c r="G504" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L504" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M504" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N504" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O504" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P504" s="2"/>
+      <c r="Q504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R504" s="2"/>
+      <c r="S504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC504" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD504" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF504" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG504" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH504" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI504" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ504" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK504" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B505" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C505" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D505" s="2"/>
+      <c r="E505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F505" s="2"/>
+      <c r="G505" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M505" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="N505" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O505" s="2"/>
+      <c r="P505" s="2"/>
+      <c r="Q505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R505" s="2"/>
+      <c r="S505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF505" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG505" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH505" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI505" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ505" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK505" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D506" s="2"/>
+      <c r="E506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F506" s="2"/>
+      <c r="G506" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H506" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L506" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M506" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O506" s="2"/>
+      <c r="P506" s="2"/>
+      <c r="Q506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R506" s="2"/>
+      <c r="S506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH506" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI506" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ506" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK506" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D507" s="2"/>
+      <c r="E507" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F507" s="2"/>
+      <c r="G507" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L507" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M507" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O507" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P507" s="2"/>
+      <c r="Q507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R507" s="2"/>
+      <c r="S507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC507" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD507" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF507" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH507" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI507" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ507" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK507" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B508" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C508" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D508" s="2"/>
+      <c r="E508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F508" s="2"/>
+      <c r="G508" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M508" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N508" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="O508" s="2"/>
+      <c r="P508" s="2"/>
+      <c r="Q508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R508" s="2"/>
+      <c r="S508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF508" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG508" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH508" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI508" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ508" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK508" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D509" s="2"/>
+      <c r="E509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F509" s="2"/>
+      <c r="G509" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H509" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L509" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M509" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N509" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O509" s="2"/>
+      <c r="P509" s="2"/>
+      <c r="Q509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R509" s="2"/>
+      <c r="S509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH509" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI509" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ509" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK509" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D510" s="2"/>
+      <c r="E510" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F510" s="2"/>
+      <c r="G510" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L510" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M510" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N510" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O510" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P510" s="2"/>
+      <c r="Q510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R510" s="2"/>
+      <c r="S510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC510" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD510" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF510" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH510" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI510" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ510" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK510" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B511" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C511" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D511" s="2"/>
+      <c r="E511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F511" s="2"/>
+      <c r="G511" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M511" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N511" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="O511" s="2"/>
+      <c r="P511" s="2"/>
+      <c r="Q511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R511" s="2"/>
+      <c r="S511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF511" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG511" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH511" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI511" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ511" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK511" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="E512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F512" s="2"/>
+      <c r="G512" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L512" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M512" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N512" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O512" s="2"/>
+      <c r="P512" s="2"/>
+      <c r="Q512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R512" s="2"/>
+      <c r="S512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH512" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI512" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ512" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK512" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D513" s="2"/>
+      <c r="E513" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F513" s="2"/>
+      <c r="G513" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L513" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M513" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N513" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O513" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P513" s="2"/>
+      <c r="Q513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R513" s="2"/>
+      <c r="S513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC513" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD513" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF513" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH513" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI513" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ513" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK513" t="s" s="2">
         <v>92</v>
       </c>
     </row>
